--- a/cmip6/models/besm-2-9/cmip6_inpe_besm-2-9_ocnbgchem.xlsx
+++ b/cmip6/models/besm-2-9/cmip6_inpe_besm-2-9_ocnbgchem.xlsx
@@ -37,7 +37,7 @@
     <t>Model</t>
   </si>
   <si>
-    <t>BESM-2-7</t>
+    <t>BESM-2-9</t>
   </si>
   <si>
     <t>Realm / Topic</t>
